--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irem.dagdeviren/Downloads/CS402_FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A91DEE-5C48-5340-90F6-816DAC1AD708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD37EBC-BD04-C14D-BC68-B2F4BCBC4C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2540" windowWidth="17300" windowHeight="8900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Map</t>
   </si>
   <si>
-    <t>Video</t>
-  </si>
-  <si>
     <t>Social Media</t>
   </si>
   <si>
@@ -95,12 +92,6 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Amenities</t>
-  </si>
-  <si>
     <t>Reservation</t>
   </si>
   <si>
@@ -134,12 +125,6 @@
     <t>QuestionForm</t>
   </si>
   <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
@@ -149,21 +134,9 @@
     <t>Searchbar</t>
   </si>
   <si>
-    <t>Journal</t>
-  </si>
-  <si>
     <t>Newsletter</t>
   </si>
   <si>
-    <t>Virtualtour</t>
-  </si>
-  <si>
-    <t>Bookbutton</t>
-  </si>
-  <si>
-    <t>Aboutus</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
@@ -191,21 +164,6 @@
     <t>Weather</t>
   </si>
   <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>Cancellation</t>
-  </si>
-  <si>
-    <t>Privacy_policy</t>
-  </si>
-  <si>
-    <t>Special_offer</t>
-  </si>
-  <si>
-    <t>Policies</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -216,6 +174,69 @@
   </si>
   <si>
     <t>CookiePolicy</t>
+  </si>
+  <si>
+    <t>BookButton</t>
+  </si>
+  <si>
+    <t>CancellationPolicy</t>
+  </si>
+  <si>
+    <t>HotelPolicy</t>
+  </si>
+  <si>
+    <t>PrivacyPolicy</t>
+  </si>
+  <si>
+    <t>VirtualTour</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>AboutUs</t>
+  </si>
+  <si>
+    <t>FeedbackSurvey</t>
+  </si>
+  <si>
+    <t>MapInformation</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>TripAdvisor</t>
+  </si>
+  <si>
+    <t>JournalSubscription</t>
+  </si>
+  <si>
+    <t>WebsiteSecurity</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>Offers</t>
+  </si>
+  <si>
+    <t>SpecialOffer</t>
+  </si>
+  <si>
+    <t>AdultChildren</t>
+  </si>
+  <si>
+    <t>AmenitiesFacilities</t>
   </si>
 </sst>
 </file>
@@ -328,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,6 +387,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -649,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="137" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,10 +695,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -675,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="12">
-        <v>2.2388059701492535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2.4875621890547261</v>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6">
         <v>2.4875621890547261</v>
@@ -704,79 +735,79 @@
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6">
         <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2.4875621890547301</v>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6">
-        <v>2.4875621890547301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6">
         <v>2.4875621890547301</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2.4875621890547261</v>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6">
-        <v>2.4875621890547261</v>
+        <v>2.4875621890547301</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="14">
-        <v>2.4875621890547261</v>
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.4875621890547301</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0</v>
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>31</v>
+      <c r="A15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="6">
         <v>2.4875621890547261</v>
@@ -784,119 +815,119 @@
     </row>
     <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.49751243781094523</v>
+        <v>33</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6">
         <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2.4875621890547261</v>
+      <c r="A19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.49751243781094523</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7">
         <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1.9900497512437809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1.4925373134328357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1.4925373134328399</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B24" s="7">
-        <v>1.4925373134328399</v>
+        <v>1.9900497512437809</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0</v>
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.4925373134328357</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B26" s="7">
-        <v>2.4875621890547261</v>
+        <v>1.4925373134328399</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B27" s="7">
-        <v>2.4875621890547261</v>
+        <v>1.4925373134328399</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2.74004975124378</v>
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0</v>
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B30" s="7">
         <v>2.4875621890547261</v>
@@ -904,55 +935,55 @@
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B31" s="7">
-        <v>1.9900497512437809</v>
+        <v>2.74004975124378</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="11">
+        <v>16</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="7">
         <v>1.9900497512437809</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="7">
-        <v>2.4875621890547301</v>
+      <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>20</v>
+      <c r="A36" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B36" s="7">
-        <v>2.4875621890547261</v>
+        <v>1.9900497512437809</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B37" s="10">
         <v>0</v>
@@ -960,184 +991,241 @@
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B38" s="7">
-        <v>2.4875621890547261</v>
+        <v>2.4875621890547301</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B39" s="7">
-        <v>2.4875621890547261</v>
+        <v>2.4875621890547301</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B40" s="7">
         <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7">
-        <v>2.4875621890547261</v>
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="11">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="7">
         <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="11">
-        <v>0</v>
+      <c r="A43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>37</v>
+      <c r="A44" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B44" s="7">
-        <v>0.49751243781094501</v>
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>38</v>
+      <c r="A45" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B45" s="7">
-        <v>0.49751243781094501</v>
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B46" s="11">
-        <v>2.4875621890547261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="10">
-        <v>0</v>
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>36</v>
+      <c r="A48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B49" s="7">
         <v>0.49751243781094501</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.49751243781094501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="18">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1</v>
+      </c>
+      <c r="C54" s="17"/>
+    </row>
+    <row r="55" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.49751243781094501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1.9900497512437809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1.99004975124378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B65" s="7">
+        <v>1.99004975124378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="7">
         <v>1.9900497512437809</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1.99004975124378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1.99004975124378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="7">
-        <v>1.9900497512437809</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="8">
-        <f>SUM(B2:B59)</f>
-        <v>100.00373134328362</v>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="8">
+        <f>SUM(B2:B66)</f>
+        <v>102.00492537313437</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irem.dagdeviren/Downloads/CS402_FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kronos\PycharmProjects\cs402-vision\CS402_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD37EBC-BD04-C14D-BC68-B2F4BCBC4C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2265938-BB95-454B-9643-B96E024227FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3030" windowWidth="13215" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Map</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>gallery</t>
-  </si>
-  <si>
     <t>Offers</t>
   </si>
   <si>
@@ -237,6 +234,12 @@
   </si>
   <si>
     <t>AmenitiesFacilities</t>
+  </si>
+  <si>
+    <t>ExperientialPhotos</t>
+  </si>
+  <si>
+    <t>Photos</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -283,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -347,9 +356,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,9 +405,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -680,20 +693,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="137" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="137" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -701,7 +714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -717,7 +730,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +746,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,7 +754,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -749,7 +762,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -757,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -765,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -773,7 +786,7 @@
         <v>2.4875621890547301</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -781,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -789,7 +802,7 @@
         <v>2.4875621890547301</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -797,7 +810,7 @@
         <v>2.4875621890547301</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -805,7 +818,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -813,7 +826,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -821,7 +834,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -829,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -837,7 +850,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -845,7 +858,7 @@
         <v>0.49751243781094523</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -853,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -861,7 +874,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -869,7 +882,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -877,7 +890,7 @@
         <v>2.4875621890547301</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -885,7 +898,7 @@
         <v>1.9900497512437809</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -893,7 +906,7 @@
         <v>1.4925373134328357</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -901,7 +914,7 @@
         <v>1.4925373134328399</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -909,7 +922,7 @@
         <v>1.4925373134328399</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -917,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -925,7 +938,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -933,7 +946,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -941,7 +954,7 @@
         <v>2.74004975124378</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -949,71 +962,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7">
         <v>1.9900497512437809</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B37" s="7">
         <v>1.9900497512437809</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B39" s="7">
         <v>2.4875621890547301</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B40" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2.4875621890547301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1021,15 +1034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="7">
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -1045,7 +1058,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1053,7 +1066,7 @@
         <v>2.4875621890547261</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -1061,171 +1074,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>62</v>
+    <row r="47" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="B47" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B49" s="7">
-        <v>0.49751243781094501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="B50" s="7">
         <v>0.49751243781094501</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.49751243781094501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="18">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="19">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="B54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B55" s="16">
         <v>1</v>
       </c>
-      <c r="C54" s="17"/>
-    </row>
-    <row r="55" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="C55" s="17"/>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B57" s="7">
         <v>0.49751243781094501</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B58" s="7">
         <v>1.9900497512437809</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="7">
+        <v>2.4875621890547301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="7">
+        <v>2.4875621890547301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="7">
+        <v>2.4875621890547261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="7">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="B64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B64" s="7">
-        <v>1.99004975124378</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B65" s="7">
         <v>1.99004975124378</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.99004975124378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B67" s="7">
         <v>1.9900497512437809</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="8">
-        <f>SUM(B2:B66)</f>
-        <v>102.00492537313437</v>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <f>SUM(B2:B67)</f>
+        <v>100.00223880597017</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kronos\PycharmProjects\cs402-vision\CS402_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irem.dagdeviren/Downloads/CS402_FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2265938-BB95-454B-9643-B96E024227FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7E908-C69A-1C4D-9625-4B619FE30F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="3030" windowWidth="13215" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Map</t>
   </si>
@@ -89,9 +89,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>Photo</t>
-  </si>
-  <si>
     <t>Reservation</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>PrivacyPolicy</t>
   </si>
   <si>
-    <t>VirtualTour</t>
-  </si>
-  <si>
     <t>Calendar</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
   </si>
   <si>
     <t>MapInformation</t>
-  </si>
-  <si>
-    <t>Reviews</t>
   </si>
   <si>
     <t>TripAdvisor</t>
@@ -247,9 +238,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,13 +250,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -286,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +298,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,9 +334,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,52 +344,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -693,560 +646,748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="137" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11">
+        <f>C3*$F$66</f>
+        <v>2.3195876288659791</v>
+      </c>
+      <c r="C3" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:B64" si="0">C4*$F$66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C14" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C15" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.51546391752577314</v>
+      </c>
+      <c r="C18" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C20" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C21" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C22" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C23" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5463917525773194</v>
+      </c>
+      <c r="C24" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C25" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5463917525773194</v>
+      </c>
+      <c r="C26" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C28" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C29" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C30" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C32" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C33" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C34" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="6">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="14">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="B36" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C36" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.49751243781094523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1.9900497512437809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1.4925373134328357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="7">
-        <v>1.4925373134328399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1.4925373134328399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="7">
-        <v>2.74004975124378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1.9900497512437809</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C38" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="7">
-        <v>1.9900497512437809</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="7">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="B39" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C39" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="8">
+        <f>C40*$F$66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="7">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C41" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C42" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C43" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C44" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8659793814432986</v>
+      </c>
+      <c r="C46" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C47" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="C49" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="C50" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5773195876288657</v>
+      </c>
+      <c r="C52" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C54" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="11">
+        <f t="shared" si="0"/>
+        <v>0.51546391752577314</v>
+      </c>
+      <c r="C55" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="11">
+        <f>C56*$F$66</f>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C56" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="7">
-        <v>0.49751243781094501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="7">
-        <v>0.49751243781094501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="19">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="16">
-        <v>1</v>
-      </c>
-      <c r="C55" s="17"/>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="7">
-        <v>0.49751243781094501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1.9900497512437809</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5463917525773194</v>
+      </c>
+      <c r="C58" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5463917525773194</v>
+      </c>
+      <c r="C59" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="7">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5463917525773194</v>
+      </c>
+      <c r="C60" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="7">
-        <v>2.4875621890547301</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="7">
-        <v>2.4875621890547261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="7">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B61" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5463917525773194</v>
+      </c>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="7">
-        <v>1.99004975124378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="7">
-        <v>1.99004975124378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="7">
-        <v>1.9900497512437809</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
-        <f>SUM(B2:B67)</f>
-        <v>100.00223880597017</v>
+      <c r="B63" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C63" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="C64" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="6">
+        <f>SUM(B2:B64)</f>
+        <v>99.999999999999943</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="5">
+        <f>SUM(C3:C64)</f>
+        <v>3880</v>
+      </c>
+      <c r="D66">
+        <f>100/C66</f>
+        <v>2.5773195876288658E-2</v>
+      </c>
+      <c r="F66">
+        <v>2.5773195876288658E-2</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irem.dagdeviren/Downloads/CS402_FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kronos\PycharmProjects\cs402-vision\CS402_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7E908-C69A-1C4D-9625-4B619FE30F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2CD41-B88D-4046-B01D-BAC76E4E5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="1995" windowWidth="14355" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -334,7 +334,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -649,17 +649,17 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -667,7 +667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -687,7 +687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -732,7 +732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -753,7 +753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -786,7 +786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -798,7 +798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -810,7 +810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -822,7 +822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -843,7 +843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -855,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -876,7 +876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -888,7 +888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -900,7 +900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -912,7 +912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -924,7 +924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
@@ -936,7 +936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -948,7 +948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -969,7 +969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -981,7 +981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -993,7 +993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>57</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>63</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>54</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>59</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>46</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>40</v>
       </c>
@@ -1371,13 +1371,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
         <f>SUM(B2:B64)</f>
         <v>99.999999999999943</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C66" s="5">
         <f>SUM(C3:C64)</f>
         <v>3880</v>
